--- a/documentation/Burndown_Chart.xlsx
+++ b/documentation/Burndown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Source Control Code Projects\GameEngine\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD552CB1-E8C6-4C8E-B136-CDE38F652C29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AACE554-B1E4-439E-B3FC-34A5A8CEE091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AA0D91A2-1A42-4027-B0E9-BA9DFCF95638}"/>
   </bookViews>
@@ -65,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -125,11 +125,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +161,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +564,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1100"/>
-                  <a:t>Sprint points Remaining</a:t>
+                  <a:t>Story points Remaining</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1615,7 +1631,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,8 +1658,8 @@
       <c r="A2" s="7">
         <v>615</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
+      <c r="B2" s="8">
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <f>A2</f>
@@ -1657,7 +1673,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <f>C2-76.875</f>
@@ -1671,7 +1687,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>C3-76.875</f>
@@ -1685,7 +1701,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <f>C4-76.875</f>
@@ -1699,7 +1715,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ref="C6:C10" si="0">C5-76.875</f>
@@ -1713,7 +1729,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
@@ -1727,7 +1743,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
@@ -1741,7 +1757,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
@@ -1755,7 +1771,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
